--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T11:37:38+00:00</t>
+    <t>2025-09-09T12:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T12:16:22+00:00</t>
+    <t>2025-09-09T13:04:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T13:04:37+00:00</t>
+    <t>2025-09-09T13:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T13:34:13+00:00</t>
+    <t>2025-09-09T14:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T14:23:20+00:00</t>
+    <t>2025-09-09T14:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T14:57:45+00:00</t>
+    <t>2025-09-10T09:33:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T09:33:16+00:00</t>
+    <t>2025-09-11T07:00:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T07:00:12+00:00</t>
+    <t>2025-09-11T08:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T08:38:26+00:00</t>
+    <t>2025-09-11T12:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T12:09:07+00:00</t>
+    <t>2025-09-11T15:07:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -329,66 +332,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -410,28 +415,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -453,50 +458,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T15:07:27+00:00</t>
+    <t>2025-09-12T09:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T09:10:16+00:00</t>
+    <t>2025-09-12T15:50:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T15:50:13+00:00</t>
+    <t>2025-09-15T09:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T09:18:46+00:00</t>
+    <t>2025-09-15T09:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T09:57:11+00:00</t>
+    <t>2025-09-15T13:22:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T13:22:29+00:00</t>
+    <t>2025-09-15T13:48:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T13:48:13+00:00</t>
+    <t>2025-09-15T14:05:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:00+00:00</t>
+    <t>2025-09-15T14:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:56:21+00:00</t>
+    <t>2025-09-15T15:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:53:38+00:00</t>
+    <t>2025-09-16T14:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:59:04+00:00</t>
+    <t>2025-09-22T07:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T07:54:27+00:00</t>
+    <t>2025-09-22T08:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:48:37+00:00</t>
+    <t>2025-09-24T12:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:17:34+00:00</t>
+    <t>2025-09-24T13:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T13:27:33+00:00</t>
+    <t>2025-09-24T16:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/feature/RedescenteLRM/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:03:10+00:00</t>
+    <t>2025-09-30T08:11:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
